--- a/TravelingData.xlsx
+++ b/TravelingData.xlsx
@@ -126,9 +126,6 @@
     <t>if(a==079) { b=100; c=70;};</t>
   </si>
   <si>
-    <t>if(a==070) { b=70; c=100;};</t>
-  </si>
-  <si>
     <t>if(a==088) { b=70; c=100;};</t>
   </si>
   <si>
@@ -173,6 +170,10 @@
   </si>
   <si>
     <t>Programmed Steering</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if(a==080) { b=70; c=100;};</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -654,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="5" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -674,22 +675,22 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
         <v>48</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -3395,7 +3396,7 @@
         <v>70</v>
       </c>
       <c r="AB37" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3467,7 +3468,7 @@
         <v/>
       </c>
       <c r="AB38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3539,7 +3540,7 @@
         <v/>
       </c>
       <c r="AB39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3617,7 +3618,7 @@
         <v>70</v>
       </c>
       <c r="AB40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3689,7 +3690,7 @@
         <v/>
       </c>
       <c r="AB41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -3767,7 +3768,7 @@
         <v>100</v>
       </c>
       <c r="AB42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -3839,7 +3840,7 @@
         <v/>
       </c>
       <c r="AB43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -3911,7 +3912,7 @@
         <v/>
       </c>
       <c r="AB44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -3983,7 +3984,7 @@
         <v/>
       </c>
       <c r="AB45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4061,7 +4062,7 @@
         <v>100</v>
       </c>
       <c r="AB46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:28">
